--- a/Data/EC/NIT-9006127467.xlsx
+++ b/Data/EC/NIT-9006127467.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3FDCB5-2D43-4CFD-A78E-E40C401E67F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C405C9BA-DE9E-4834-B524-3CFD2FD314FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C791EC8E-C3AC-4808-8D99-1D7B1BF6E3C8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B7D37B92-4ECF-47DF-8878-BF9704ADEB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,163 +71,163 @@
     <t>ISAAC DAVID PEREZ BATISTA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>885425</t>
+  </si>
+  <si>
+    <t>ELKIN DE JESUS PAJARO MANCILLA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>1802</t>
   </si>
   <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>885425</t>
-  </si>
-  <si>
-    <t>ELKIN DE JESUS PAJARO MANCILLA</t>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +326,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +341,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +541,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +585,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB93DE19-CFB8-81DF-B1CD-0FBEB0D89D3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED22BEF-7A71-3950-FAB5-160CB1C6F084}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA33E787-68D7-4AC8-8DFF-0B5B677C0021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69616EA5-D493-4513-9061-BEF38E184B17}">
   <dimension ref="B2:J92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1184,19 +1184,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>24640</v>
@@ -1230,19 +1230,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1276,19 +1276,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>24640</v>
@@ -1322,19 +1322,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1351,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>24640</v>
@@ -1368,19 +1368,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>24640</v>
@@ -1414,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1443,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>24640</v>
@@ -1460,19 +1460,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>24640</v>
@@ -1506,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1535,7 +1535,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>24640</v>
@@ -1552,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1581,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>24640</v>
@@ -1598,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1621,19 +1621,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>29166</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1644,16 +1644,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1667,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1690,16 +1690,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1713,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1736,16 +1736,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1759,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1782,16 +1782,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1805,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1828,16 +1828,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1851,19 +1851,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1874,16 +1874,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1897,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1920,16 +1920,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1943,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1966,16 +1966,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1989,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2012,16 +2012,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2035,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2058,16 +2058,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2081,16 +2081,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2104,16 +2104,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2127,16 +2127,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2150,16 +2150,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2173,16 +2173,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2196,13 +2196,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F61" s="18">
         <v>27578</v>
@@ -2219,16 +2219,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2242,16 +2242,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2265,16 +2265,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2288,16 +2288,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2311,16 +2311,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2334,16 +2334,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2357,16 +2357,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2380,16 +2380,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2403,16 +2403,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2426,16 +2426,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2449,16 +2449,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F72" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2472,16 +2472,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F73" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2495,16 +2495,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F74" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2518,16 +2518,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F75" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2541,16 +2541,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F76" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2564,16 +2564,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F77" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2587,16 +2587,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2610,16 +2610,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F79" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2633,16 +2633,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F80" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2656,16 +2656,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F81" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2679,16 +2679,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2702,16 +2702,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F83" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2725,16 +2725,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F84" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2748,16 +2748,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F85" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2771,16 +2771,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F86" s="24">
-        <v>27578</v>
+        <v>29166</v>
       </c>
       <c r="G86" s="24">
         <v>781242</v>
